--- a/Code/Results/Cases/Case_4_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037666334033918</v>
+        <v>1.065133174868965</v>
       </c>
       <c r="D2">
-        <v>1.051617771299385</v>
+        <v>1.06784982194883</v>
       </c>
       <c r="E2">
-        <v>1.055171247075868</v>
+        <v>1.077796922916633</v>
       </c>
       <c r="F2">
-        <v>1.061484880046203</v>
+        <v>1.082880924073111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060866169455478</v>
+        <v>1.054010344733571</v>
       </c>
       <c r="J2">
-        <v>1.058775992469273</v>
+        <v>1.070089852595505</v>
       </c>
       <c r="K2">
-        <v>1.062401945898352</v>
+        <v>1.070556580613251</v>
       </c>
       <c r="L2">
-        <v>1.065911964518925</v>
+        <v>1.080477279543</v>
       </c>
       <c r="M2">
-        <v>1.072149275710181</v>
+        <v>1.085547988780456</v>
       </c>
       <c r="N2">
-        <v>1.022742824821638</v>
+        <v>1.026990767719589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042630264322925</v>
+        <v>1.066185571088467</v>
       </c>
       <c r="D3">
-        <v>1.05539887088639</v>
+        <v>1.068672123750078</v>
       </c>
       <c r="E3">
-        <v>1.059639661740864</v>
+        <v>1.078793744189694</v>
       </c>
       <c r="F3">
-        <v>1.065874408400786</v>
+        <v>1.083858243701293</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062542707085135</v>
+        <v>1.054313355121299</v>
       </c>
       <c r="J3">
-        <v>1.062022597518976</v>
+        <v>1.070797244362746</v>
       </c>
       <c r="K3">
-        <v>1.06536878285666</v>
+        <v>1.071194731063045</v>
       </c>
       <c r="L3">
-        <v>1.06956233885055</v>
+        <v>1.08129142470236</v>
       </c>
       <c r="M3">
-        <v>1.07572847963146</v>
+        <v>1.08634363957621</v>
       </c>
       <c r="N3">
-        <v>1.023870248191156</v>
+        <v>1.02723268512326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045776031832263</v>
+        <v>1.06686697869496</v>
       </c>
       <c r="D4">
-        <v>1.057798044276077</v>
+        <v>1.069204566835808</v>
       </c>
       <c r="E4">
-        <v>1.062476471214303</v>
+        <v>1.079439493556402</v>
       </c>
       <c r="F4">
-        <v>1.06866122036684</v>
+        <v>1.084491336966886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063596881149565</v>
+        <v>1.054508484358153</v>
       </c>
       <c r="J4">
-        <v>1.064077086621763</v>
+        <v>1.07125478531488</v>
       </c>
       <c r="K4">
-        <v>1.067245567776126</v>
+        <v>1.071607362411491</v>
       </c>
       <c r="L4">
-        <v>1.071875094361265</v>
+        <v>1.081818349936037</v>
       </c>
       <c r="M4">
-        <v>1.077995999887783</v>
+        <v>1.08685855573058</v>
       </c>
       <c r="N4">
-        <v>1.024583150130964</v>
+        <v>1.027389023089995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047083252788448</v>
+        <v>1.067153546670354</v>
       </c>
       <c r="D5">
-        <v>1.058795686916624</v>
+        <v>1.069428490924381</v>
       </c>
       <c r="E5">
-        <v>1.063656480626073</v>
+        <v>1.079711142780055</v>
       </c>
       <c r="F5">
-        <v>1.069820447044149</v>
+        <v>1.084757656596113</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064032918861225</v>
+        <v>1.054590291613494</v>
       </c>
       <c r="J5">
-        <v>1.064930081612124</v>
+        <v>1.071447089757504</v>
       </c>
       <c r="K5">
-        <v>1.068024614837701</v>
+        <v>1.071780761476564</v>
       </c>
       <c r="L5">
-        <v>1.072835981209995</v>
+        <v>1.082039897088945</v>
       </c>
       <c r="M5">
-        <v>1.078938054100549</v>
+        <v>1.087075044181071</v>
       </c>
       <c r="N5">
-        <v>1.024878998847238</v>
+        <v>1.027454699680572</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047301862835675</v>
+        <v>1.067201668795076</v>
       </c>
       <c r="D6">
-        <v>1.058962563205124</v>
+        <v>1.069466093723666</v>
       </c>
       <c r="E6">
-        <v>1.063853884757453</v>
+        <v>1.079756764188376</v>
       </c>
       <c r="F6">
-        <v>1.070014375108961</v>
+        <v>1.084802382614469</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064105718683848</v>
+        <v>1.054604014203313</v>
       </c>
       <c r="J6">
-        <v>1.065072685394207</v>
+        <v>1.071479375818949</v>
       </c>
       <c r="K6">
-        <v>1.068154845901221</v>
+        <v>1.071809871752404</v>
       </c>
       <c r="L6">
-        <v>1.072996661417517</v>
+        <v>1.082077097440556</v>
       </c>
       <c r="M6">
-        <v>1.07909558271498</v>
+        <v>1.087111394561902</v>
       </c>
       <c r="N6">
-        <v>1.024928450525133</v>
+        <v>1.027465724251946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045793558177118</v>
+        <v>1.066870807421216</v>
       </c>
       <c r="D7">
-        <v>1.057811417427255</v>
+        <v>1.069207558587497</v>
       </c>
       <c r="E7">
-        <v>1.062492287397546</v>
+        <v>1.079443122655324</v>
       </c>
       <c r="F7">
-        <v>1.068676757940536</v>
+        <v>1.084494894886821</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063602735289687</v>
+        <v>1.054509578355512</v>
       </c>
       <c r="J7">
-        <v>1.064088526000825</v>
+        <v>1.071257355076817</v>
       </c>
       <c r="K7">
-        <v>1.06725601612484</v>
+        <v>1.071609679658629</v>
       </c>
       <c r="L7">
-        <v>1.071887978036893</v>
+        <v>1.081821310151598</v>
       </c>
       <c r="M7">
-        <v>1.07800863121121</v>
+        <v>1.086861448391183</v>
       </c>
       <c r="N7">
-        <v>1.024587118266423</v>
+        <v>1.02738990085237</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039357998736491</v>
+        <v>1.065488746413986</v>
       </c>
       <c r="D8">
-        <v>1.052905677756687</v>
+        <v>1.068127647857779</v>
       </c>
       <c r="E8">
-        <v>1.05669295812215</v>
+        <v>1.078133649757486</v>
       </c>
       <c r="F8">
-        <v>1.062979705273539</v>
+        <v>1.083211067917565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061439236430913</v>
+        <v>1.054112942682184</v>
       </c>
       <c r="J8">
-        <v>1.059883008184155</v>
+        <v>1.070328957709404</v>
       </c>
       <c r="K8">
-        <v>1.063413701423159</v>
+        <v>1.070772307190039</v>
       </c>
       <c r="L8">
-        <v>1.067156078400029</v>
+        <v>1.080752398691272</v>
       </c>
       <c r="M8">
-        <v>1.073369161114456</v>
+        <v>1.085816866346267</v>
       </c>
       <c r="N8">
-        <v>1.023127359306525</v>
+        <v>1.027072565812176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027482085752665</v>
+        <v>1.063056740638085</v>
       </c>
       <c r="D9">
-        <v>1.043879152760602</v>
+        <v>1.066227494630386</v>
       </c>
       <c r="E9">
-        <v>1.046033362681037</v>
+        <v>1.07583188944447</v>
       </c>
       <c r="F9">
-        <v>1.052509050663552</v>
+        <v>1.080954216321601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057382410832662</v>
+        <v>1.053406845206003</v>
       </c>
       <c r="J9">
-        <v>1.052100357660339</v>
+        <v>1.068691581802528</v>
       </c>
       <c r="K9">
-        <v>1.056298290168286</v>
+        <v>1.069294520013801</v>
       </c>
       <c r="L9">
-        <v>1.058421259552928</v>
+        <v>1.078869780246803</v>
       </c>
       <c r="M9">
-        <v>1.064804010819489</v>
+        <v>1.083976799320353</v>
       </c>
       <c r="N9">
-        <v>1.020421960812423</v>
+        <v>1.026511871991634</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.019162196784295</v>
+        <v>1.061437683839561</v>
       </c>
       <c r="D10">
-        <v>1.037576965065224</v>
+        <v>1.064962651530384</v>
       </c>
       <c r="E10">
-        <v>1.038597105331394</v>
+        <v>1.074301260269477</v>
       </c>
       <c r="F10">
-        <v>1.045205663014535</v>
+        <v>1.079453339649692</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054499063415114</v>
+        <v>1.052931309068522</v>
       </c>
       <c r="J10">
-        <v>1.046635643440312</v>
+        <v>1.067599074735219</v>
       </c>
       <c r="K10">
-        <v>1.051299356508377</v>
+        <v>1.068307864332126</v>
       </c>
       <c r="L10">
-        <v>1.052302774764362</v>
+        <v>1.077615371899741</v>
       </c>
       <c r="M10">
-        <v>1.058804020365448</v>
+        <v>1.082750545399884</v>
       </c>
       <c r="N10">
-        <v>1.018520114856365</v>
+        <v>1.026137079206739</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.015453739516915</v>
+        <v>1.06073715867734</v>
       </c>
       <c r="D11">
-        <v>1.034773846742214</v>
+        <v>1.064415427722463</v>
       </c>
       <c r="E11">
-        <v>1.03529068818518</v>
+        <v>1.073639409955049</v>
       </c>
       <c r="F11">
-        <v>1.04195867718255</v>
+        <v>1.078804328978411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053204620569769</v>
+        <v>1.052724260949797</v>
       </c>
       <c r="J11">
-        <v>1.044197462682946</v>
+        <v>1.06712579451825</v>
       </c>
       <c r="K11">
-        <v>1.049068481072286</v>
+        <v>1.06788029121402</v>
       </c>
       <c r="L11">
-        <v>1.04957641023794</v>
+        <v>1.077072365934104</v>
       </c>
       <c r="M11">
-        <v>1.056130441531119</v>
+        <v>1.082219680499338</v>
       </c>
       <c r="N11">
-        <v>1.017671162316868</v>
+        <v>1.025974556903842</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.014059385160772</v>
+        <v>1.060477033320532</v>
       </c>
       <c r="D12">
-        <v>1.033720871377128</v>
+        <v>1.064212234578245</v>
       </c>
       <c r="E12">
-        <v>1.034048789739649</v>
+        <v>1.07339370851773</v>
       </c>
       <c r="F12">
-        <v>1.040739163458395</v>
+        <v>1.078563390301561</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052716580842099</v>
+        <v>1.052647183377862</v>
       </c>
       <c r="J12">
-        <v>1.043280419283117</v>
+        <v>1.066949964953118</v>
       </c>
       <c r="K12">
-        <v>1.048229344381287</v>
+        <v>1.067721420239427</v>
       </c>
       <c r="L12">
-        <v>1.048551502680746</v>
+        <v>1.076870694100805</v>
       </c>
       <c r="M12">
-        <v>1.055125381439459</v>
+        <v>1.082022510926874</v>
       </c>
       <c r="N12">
-        <v>1.017351804438187</v>
+        <v>1.025914153910677</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.014359258430843</v>
+        <v>1.060532827429607</v>
       </c>
       <c r="D13">
-        <v>1.033947281350117</v>
+        <v>1.064255817010563</v>
       </c>
       <c r="E13">
-        <v>1.034315816059192</v>
+        <v>1.073446405998223</v>
       </c>
       <c r="F13">
-        <v>1.041001373773289</v>
+        <v>1.078615066444835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052821599493989</v>
+        <v>1.052663724498116</v>
       </c>
       <c r="J13">
-        <v>1.043477653765702</v>
+        <v>1.06698768244247</v>
       </c>
       <c r="K13">
-        <v>1.04840982567394</v>
+        <v>1.06775550091519</v>
       </c>
       <c r="L13">
-        <v>1.048771912403044</v>
+        <v>1.07691395226431</v>
       </c>
       <c r="M13">
-        <v>1.055341522613569</v>
+        <v>1.08206480367762</v>
       </c>
       <c r="N13">
-        <v>1.017420492983075</v>
+        <v>1.025927112136114</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.015338831662278</v>
+        <v>1.060715654983198</v>
       </c>
       <c r="D14">
-        <v>1.034687051369838</v>
+        <v>1.064398630278285</v>
       </c>
       <c r="E14">
-        <v>1.035188317498696</v>
+        <v>1.073619097353197</v>
       </c>
       <c r="F14">
-        <v>1.041858150367933</v>
+        <v>1.078784410199132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053164428425781</v>
+        <v>1.05271789317397</v>
       </c>
       <c r="J14">
-        <v>1.044121895593045</v>
+        <v>1.067111261046207</v>
       </c>
       <c r="K14">
-        <v>1.048999334964327</v>
+        <v>1.067867159932876</v>
       </c>
       <c r="L14">
-        <v>1.049491944114678</v>
+        <v>1.077055695169155</v>
       </c>
       <c r="M14">
-        <v>1.0560476109861</v>
+        <v>1.082203382044863</v>
       </c>
       <c r="N14">
-        <v>1.0176448472739</v>
+        <v>1.025969564685497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.015940113933918</v>
+        <v>1.060828311795951</v>
       </c>
       <c r="D15">
-        <v>1.035141268821431</v>
+        <v>1.06448663156436</v>
       </c>
       <c r="E15">
-        <v>1.035724049122779</v>
+        <v>1.073725516667526</v>
       </c>
       <c r="F15">
-        <v>1.042384235136158</v>
+        <v>1.078888766092791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053374689004678</v>
+        <v>1.052751245673937</v>
       </c>
       <c r="J15">
-        <v>1.044517306014052</v>
+        <v>1.067187397646653</v>
       </c>
       <c r="K15">
-        <v>1.049361144564407</v>
+        <v>1.067935949958867</v>
       </c>
       <c r="L15">
-        <v>1.049933940860658</v>
+        <v>1.077143030948417</v>
       </c>
       <c r="M15">
-        <v>1.056481049233497</v>
+        <v>1.082288767059198</v>
       </c>
       <c r="N15">
-        <v>1.017782540649716</v>
+        <v>1.025995716475896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.019406003635836</v>
+        <v>1.061484186719395</v>
       </c>
       <c r="D16">
-        <v>1.037761382935719</v>
+        <v>1.064998978765319</v>
       </c>
       <c r="E16">
-        <v>1.03881465618834</v>
+        <v>1.074345204583612</v>
       </c>
       <c r="F16">
-        <v>1.045419311612707</v>
+        <v>1.079496430930331</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054583976345715</v>
+        <v>1.052945026219951</v>
       </c>
       <c r="J16">
-        <v>1.046795892842906</v>
+        <v>1.067630480241407</v>
       </c>
       <c r="K16">
-        <v>1.051445971151644</v>
+        <v>1.068336233732548</v>
       </c>
       <c r="L16">
-        <v>1.052482038054459</v>
+        <v>1.077651412859141</v>
       </c>
       <c r="M16">
-        <v>1.058979813114453</v>
+        <v>1.082785779546913</v>
       </c>
       <c r="N16">
-        <v>1.018575904553048</v>
+        <v>1.0261478603576</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.021551059852215</v>
+        <v>1.061895743659794</v>
       </c>
       <c r="D17">
-        <v>1.039384613919063</v>
+        <v>1.065320484771423</v>
       </c>
       <c r="E17">
-        <v>1.040729644891716</v>
+        <v>1.074734165828516</v>
       </c>
       <c r="F17">
-        <v>1.04729999198517</v>
+        <v>1.079877838844873</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055330010407486</v>
+        <v>1.053066275192517</v>
       </c>
       <c r="J17">
-        <v>1.048205531917128</v>
+        <v>1.0679083563463</v>
       </c>
       <c r="K17">
-        <v>1.052735614940317</v>
+        <v>1.068587229239603</v>
       </c>
       <c r="L17">
-        <v>1.054059332239173</v>
+        <v>1.077970350927459</v>
       </c>
       <c r="M17">
-        <v>1.060526569895179</v>
+        <v>1.083097572520903</v>
       </c>
       <c r="N17">
-        <v>1.019066615031052</v>
+        <v>1.026243233585604</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022792086467571</v>
+        <v>1.062135849671347</v>
       </c>
       <c r="D18">
-        <v>1.040324299217025</v>
+        <v>1.065508058269898</v>
       </c>
       <c r="E18">
-        <v>1.04183833639082</v>
+        <v>1.074961129276596</v>
       </c>
       <c r="F18">
-        <v>1.048388853396374</v>
+        <v>1.080100392372671</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055760750622195</v>
+        <v>1.053136887864516</v>
       </c>
       <c r="J18">
-        <v>1.049020852967396</v>
+        <v>1.068070415766163</v>
       </c>
       <c r="K18">
-        <v>1.053481482653835</v>
+        <v>1.068733597380013</v>
       </c>
       <c r="L18">
-        <v>1.054971955759693</v>
+        <v>1.078156397615862</v>
       </c>
       <c r="M18">
-        <v>1.061421522624541</v>
+        <v>1.083279446771023</v>
       </c>
       <c r="N18">
-        <v>1.019350397539822</v>
+        <v>1.026298840527049</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.023213551094461</v>
+        <v>1.062217728398974</v>
       </c>
       <c r="D19">
-        <v>1.040643518415789</v>
+        <v>1.065572023506799</v>
       </c>
       <c r="E19">
-        <v>1.042214987674525</v>
+        <v>1.07503853301118</v>
       </c>
       <c r="F19">
-        <v>1.048758773196931</v>
+        <v>1.080176291725681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055906883569862</v>
+        <v>1.053160946328487</v>
       </c>
       <c r="J19">
-        <v>1.049297703607186</v>
+        <v>1.068125670262926</v>
       </c>
       <c r="K19">
-        <v>1.053734740986481</v>
+        <v>1.06878349947109</v>
       </c>
       <c r="L19">
-        <v>1.055281902851193</v>
+        <v>1.078219837342599</v>
       </c>
       <c r="M19">
-        <v>1.061725467834925</v>
+        <v>1.083341462984437</v>
       </c>
       <c r="N19">
-        <v>1.019446751817088</v>
+        <v>1.026317797207359</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.02132197201921</v>
+        <v>1.061851582134538</v>
       </c>
       <c r="D20">
-        <v>1.039211197171943</v>
+        <v>1.065285985612651</v>
       </c>
       <c r="E20">
-        <v>1.040525047393875</v>
+        <v>1.074692424764096</v>
       </c>
       <c r="F20">
-        <v>1.04709905651732</v>
+        <v>1.079836908614299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055250426311597</v>
+        <v>1.053053277680683</v>
       </c>
       <c r="J20">
-        <v>1.048055008551204</v>
+        <v>1.067878545039991</v>
       </c>
       <c r="K20">
-        <v>1.052597909877955</v>
+        <v>1.068560303236978</v>
       </c>
       <c r="L20">
-        <v>1.053890871913702</v>
+        <v>1.077936130282901</v>
       </c>
       <c r="M20">
-        <v>1.060361371213545</v>
+        <v>1.083064118976207</v>
       </c>
       <c r="N20">
-        <v>1.019014220261806</v>
+        <v>1.026233003281586</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.015050845476837</v>
+        <v>1.060661814591348</v>
       </c>
       <c r="D21">
-        <v>1.034469537721869</v>
+        <v>1.064356573387797</v>
       </c>
       <c r="E21">
-        <v>1.034931773439175</v>
+        <v>1.073568240204195</v>
       </c>
       <c r="F21">
-        <v>1.041606228141329</v>
+        <v>1.078734539012763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053063676053644</v>
+        <v>1.052701946558561</v>
       </c>
       <c r="J21">
-        <v>1.043932501924689</v>
+        <v>1.067074871113319</v>
       </c>
       <c r="K21">
-        <v>1.048826033195485</v>
+        <v>1.067834280546719</v>
       </c>
       <c r="L21">
-        <v>1.049280255300682</v>
+        <v>1.077013954728586</v>
       </c>
       <c r="M21">
-        <v>1.055840021341421</v>
+        <v>1.082162573687679</v>
       </c>
       <c r="N21">
-        <v>1.017578893129138</v>
+        <v>1.025957064431113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.011009815522266</v>
+        <v>1.059914228553964</v>
       </c>
       <c r="D22">
-        <v>1.031419815829707</v>
+        <v>1.063772621254322</v>
       </c>
       <c r="E22">
-        <v>1.031335102649521</v>
+        <v>1.072862226684549</v>
       </c>
       <c r="F22">
-        <v>1.038074514386314</v>
+        <v>1.078042204109751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051646793040182</v>
+        <v>1.052480063358886</v>
       </c>
       <c r="J22">
-        <v>1.041274269092222</v>
+        <v>1.066569383229427</v>
       </c>
       <c r="K22">
-        <v>1.046393520469381</v>
+        <v>1.067377504823172</v>
       </c>
       <c r="L22">
-        <v>1.046310355186898</v>
+        <v>1.076434289884393</v>
       </c>
       <c r="M22">
-        <v>1.052927648654938</v>
+        <v>1.081595836702641</v>
       </c>
       <c r="N22">
-        <v>1.016653084255395</v>
+        <v>1.025783368509364</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.01316168273812</v>
+        <v>1.060310493629411</v>
       </c>
       <c r="D23">
-        <v>1.033043238747485</v>
+        <v>1.064082146558836</v>
       </c>
       <c r="E23">
-        <v>1.033249612499104</v>
+        <v>1.073236421186766</v>
       </c>
       <c r="F23">
-        <v>1.039954409779238</v>
+        <v>1.078409150834191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052402004236996</v>
+        <v>1.052597781344053</v>
       </c>
       <c r="J23">
-        <v>1.042689936530879</v>
+        <v>1.066837369418399</v>
       </c>
       <c r="K23">
-        <v>1.04768900903088</v>
+        <v>1.067619678206301</v>
       </c>
       <c r="L23">
-        <v>1.047891714869471</v>
+        <v>1.076741567395833</v>
       </c>
       <c r="M23">
-        <v>1.05447837244827</v>
+        <v>1.081896264994063</v>
       </c>
       <c r="N23">
-        <v>1.017146157129807</v>
+        <v>1.025875467082745</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.021425518241261</v>
+        <v>1.061871536666716</v>
       </c>
       <c r="D24">
-        <v>1.039289578686563</v>
+        <v>1.065301574160091</v>
       </c>
       <c r="E24">
-        <v>1.040617521756738</v>
+        <v>1.074711285479601</v>
       </c>
       <c r="F24">
-        <v>1.047189875607731</v>
+        <v>1.079855402961851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055286400539685</v>
+        <v>1.053059151036074</v>
       </c>
       <c r="J24">
-        <v>1.04812304485361</v>
+        <v>1.067892015551005</v>
       </c>
       <c r="K24">
-        <v>1.052660152482933</v>
+        <v>1.068572470041418</v>
       </c>
       <c r="L24">
-        <v>1.053967014659956</v>
+        <v>1.077951593071242</v>
       </c>
       <c r="M24">
-        <v>1.060436039728496</v>
+        <v>1.083079235160058</v>
       </c>
       <c r="N24">
-        <v>1.019037902730578</v>
+        <v>1.026237625985607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.030619963577075</v>
+        <v>1.063685071961592</v>
       </c>
       <c r="D25">
-        <v>1.046260730222579</v>
+        <v>1.066718394147402</v>
       </c>
       <c r="E25">
-        <v>1.048844652804674</v>
+        <v>1.076426269604502</v>
       </c>
       <c r="F25">
-        <v>1.055270359026249</v>
+        <v>1.081537019647832</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058461593639105</v>
+        <v>1.053590236584141</v>
       </c>
       <c r="J25">
-        <v>1.054159028447855</v>
+        <v>1.069115047810479</v>
       </c>
       <c r="K25">
-        <v>1.058180975760625</v>
+        <v>1.069676824075884</v>
       </c>
       <c r="L25">
-        <v>1.060729247777656</v>
+        <v>1.079356366872604</v>
       </c>
       <c r="M25">
-        <v>1.067067250325352</v>
+        <v>1.084452423108938</v>
       </c>
       <c r="N25">
-        <v>1.021138010267822</v>
+        <v>1.026657001786422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065133174868965</v>
+        <v>1.037666334033918</v>
       </c>
       <c r="D2">
-        <v>1.06784982194883</v>
+        <v>1.051617771299385</v>
       </c>
       <c r="E2">
-        <v>1.077796922916633</v>
+        <v>1.055171247075868</v>
       </c>
       <c r="F2">
-        <v>1.082880924073111</v>
+        <v>1.061484880046203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054010344733571</v>
+        <v>1.060866169455478</v>
       </c>
       <c r="J2">
-        <v>1.070089852595505</v>
+        <v>1.058775992469273</v>
       </c>
       <c r="K2">
-        <v>1.070556580613251</v>
+        <v>1.062401945898352</v>
       </c>
       <c r="L2">
-        <v>1.080477279543</v>
+        <v>1.065911964518925</v>
       </c>
       <c r="M2">
-        <v>1.085547988780456</v>
+        <v>1.072149275710181</v>
       </c>
       <c r="N2">
-        <v>1.026990767719589</v>
+        <v>1.022742824821638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066185571088467</v>
+        <v>1.042630264322925</v>
       </c>
       <c r="D3">
-        <v>1.068672123750078</v>
+        <v>1.05539887088639</v>
       </c>
       <c r="E3">
-        <v>1.078793744189694</v>
+        <v>1.059639661740863</v>
       </c>
       <c r="F3">
-        <v>1.083858243701293</v>
+        <v>1.065874408400785</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054313355121299</v>
+        <v>1.062542707085135</v>
       </c>
       <c r="J3">
-        <v>1.070797244362746</v>
+        <v>1.062022597518976</v>
       </c>
       <c r="K3">
-        <v>1.071194731063045</v>
+        <v>1.06536878285666</v>
       </c>
       <c r="L3">
-        <v>1.08129142470236</v>
+        <v>1.06956233885055</v>
       </c>
       <c r="M3">
-        <v>1.08634363957621</v>
+        <v>1.075728479631459</v>
       </c>
       <c r="N3">
-        <v>1.02723268512326</v>
+        <v>1.023870248191155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06686697869496</v>
+        <v>1.045776031832263</v>
       </c>
       <c r="D4">
-        <v>1.069204566835808</v>
+        <v>1.057798044276077</v>
       </c>
       <c r="E4">
-        <v>1.079439493556402</v>
+        <v>1.062476471214303</v>
       </c>
       <c r="F4">
-        <v>1.084491336966886</v>
+        <v>1.06866122036684</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054508484358153</v>
+        <v>1.063596881149565</v>
       </c>
       <c r="J4">
-        <v>1.07125478531488</v>
+        <v>1.064077086621763</v>
       </c>
       <c r="K4">
-        <v>1.071607362411491</v>
+        <v>1.067245567776126</v>
       </c>
       <c r="L4">
-        <v>1.081818349936037</v>
+        <v>1.071875094361265</v>
       </c>
       <c r="M4">
-        <v>1.08685855573058</v>
+        <v>1.077995999887783</v>
       </c>
       <c r="N4">
-        <v>1.027389023089995</v>
+        <v>1.024583150130964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067153546670354</v>
+        <v>1.047083252788449</v>
       </c>
       <c r="D5">
-        <v>1.069428490924381</v>
+        <v>1.058795686916625</v>
       </c>
       <c r="E5">
-        <v>1.079711142780055</v>
+        <v>1.063656480626074</v>
       </c>
       <c r="F5">
-        <v>1.084757656596113</v>
+        <v>1.06982044704415</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054590291613494</v>
+        <v>1.064032918861225</v>
       </c>
       <c r="J5">
-        <v>1.071447089757504</v>
+        <v>1.064930081612124</v>
       </c>
       <c r="K5">
-        <v>1.071780761476564</v>
+        <v>1.068024614837702</v>
       </c>
       <c r="L5">
-        <v>1.082039897088945</v>
+        <v>1.072835981209995</v>
       </c>
       <c r="M5">
-        <v>1.087075044181071</v>
+        <v>1.078938054100549</v>
       </c>
       <c r="N5">
-        <v>1.027454699680572</v>
+        <v>1.024878998847238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067201668795076</v>
+        <v>1.047301862835674</v>
       </c>
       <c r="D6">
-        <v>1.069466093723666</v>
+        <v>1.058962563205122</v>
       </c>
       <c r="E6">
-        <v>1.079756764188376</v>
+        <v>1.063853884757451</v>
       </c>
       <c r="F6">
-        <v>1.084802382614469</v>
+        <v>1.07001437510896</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054604014203313</v>
+        <v>1.064105718683847</v>
       </c>
       <c r="J6">
-        <v>1.071479375818949</v>
+        <v>1.065072685394206</v>
       </c>
       <c r="K6">
-        <v>1.071809871752404</v>
+        <v>1.06815484590122</v>
       </c>
       <c r="L6">
-        <v>1.082077097440556</v>
+        <v>1.072996661417516</v>
       </c>
       <c r="M6">
-        <v>1.087111394561902</v>
+        <v>1.079095582714979</v>
       </c>
       <c r="N6">
-        <v>1.027465724251946</v>
+        <v>1.024928450525133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066870807421216</v>
+        <v>1.045793558177117</v>
       </c>
       <c r="D7">
-        <v>1.069207558587497</v>
+        <v>1.057811417427254</v>
       </c>
       <c r="E7">
-        <v>1.079443122655324</v>
+        <v>1.062492287397545</v>
       </c>
       <c r="F7">
-        <v>1.084494894886821</v>
+        <v>1.068676757940534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054509578355512</v>
+        <v>1.063602735289686</v>
       </c>
       <c r="J7">
-        <v>1.071257355076817</v>
+        <v>1.064088526000824</v>
       </c>
       <c r="K7">
-        <v>1.071609679658629</v>
+        <v>1.067256016124839</v>
       </c>
       <c r="L7">
-        <v>1.081821310151598</v>
+        <v>1.071887978036892</v>
       </c>
       <c r="M7">
-        <v>1.086861448391183</v>
+        <v>1.078008631211209</v>
       </c>
       <c r="N7">
-        <v>1.02738990085237</v>
+        <v>1.024587118266422</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065488746413986</v>
+        <v>1.039357998736491</v>
       </c>
       <c r="D8">
-        <v>1.068127647857779</v>
+        <v>1.052905677756686</v>
       </c>
       <c r="E8">
-        <v>1.078133649757486</v>
+        <v>1.05669295812215</v>
       </c>
       <c r="F8">
-        <v>1.083211067917565</v>
+        <v>1.062979705273539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054112942682184</v>
+        <v>1.061439236430913</v>
       </c>
       <c r="J8">
-        <v>1.070328957709404</v>
+        <v>1.059883008184155</v>
       </c>
       <c r="K8">
-        <v>1.070772307190039</v>
+        <v>1.063413701423159</v>
       </c>
       <c r="L8">
-        <v>1.080752398691272</v>
+        <v>1.067156078400029</v>
       </c>
       <c r="M8">
-        <v>1.085816866346267</v>
+        <v>1.073369161114456</v>
       </c>
       <c r="N8">
-        <v>1.027072565812176</v>
+        <v>1.023127359306525</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063056740638085</v>
+        <v>1.027482085752664</v>
       </c>
       <c r="D9">
-        <v>1.066227494630386</v>
+        <v>1.043879152760601</v>
       </c>
       <c r="E9">
-        <v>1.07583188944447</v>
+        <v>1.046033362681036</v>
       </c>
       <c r="F9">
-        <v>1.080954216321601</v>
+        <v>1.052509050663551</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053406845206003</v>
+        <v>1.057382410832662</v>
       </c>
       <c r="J9">
-        <v>1.068691581802528</v>
+        <v>1.052100357660338</v>
       </c>
       <c r="K9">
-        <v>1.069294520013801</v>
+        <v>1.056298290168285</v>
       </c>
       <c r="L9">
-        <v>1.078869780246803</v>
+        <v>1.058421259552928</v>
       </c>
       <c r="M9">
-        <v>1.083976799320353</v>
+        <v>1.064804010819489</v>
       </c>
       <c r="N9">
-        <v>1.026511871991634</v>
+        <v>1.020421960812423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.061437683839561</v>
+        <v>1.019162196784294</v>
       </c>
       <c r="D10">
-        <v>1.064962651530384</v>
+        <v>1.037576965065223</v>
       </c>
       <c r="E10">
-        <v>1.074301260269477</v>
+        <v>1.038597105331393</v>
       </c>
       <c r="F10">
-        <v>1.079453339649692</v>
+        <v>1.045205663014534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052931309068522</v>
+        <v>1.054499063415113</v>
       </c>
       <c r="J10">
-        <v>1.067599074735219</v>
+        <v>1.046635643440311</v>
       </c>
       <c r="K10">
-        <v>1.068307864332126</v>
+        <v>1.051299356508377</v>
       </c>
       <c r="L10">
-        <v>1.077615371899741</v>
+        <v>1.052302774764361</v>
       </c>
       <c r="M10">
-        <v>1.082750545399884</v>
+        <v>1.058804020365447</v>
       </c>
       <c r="N10">
-        <v>1.026137079206739</v>
+        <v>1.018520114856364</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.06073715867734</v>
+        <v>1.015453739516914</v>
       </c>
       <c r="D11">
-        <v>1.064415427722463</v>
+        <v>1.034773846742213</v>
       </c>
       <c r="E11">
-        <v>1.073639409955049</v>
+        <v>1.035290688185179</v>
       </c>
       <c r="F11">
-        <v>1.078804328978411</v>
+        <v>1.04195867718255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052724260949797</v>
+        <v>1.053204620569769</v>
       </c>
       <c r="J11">
-        <v>1.06712579451825</v>
+        <v>1.044197462682946</v>
       </c>
       <c r="K11">
-        <v>1.06788029121402</v>
+        <v>1.049068481072285</v>
       </c>
       <c r="L11">
-        <v>1.077072365934104</v>
+        <v>1.049576410237939</v>
       </c>
       <c r="M11">
-        <v>1.082219680499338</v>
+        <v>1.056130441531118</v>
       </c>
       <c r="N11">
-        <v>1.025974556903842</v>
+        <v>1.017671162316867</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.060477033320532</v>
+        <v>1.014059385160772</v>
       </c>
       <c r="D12">
-        <v>1.064212234578245</v>
+        <v>1.033720871377128</v>
       </c>
       <c r="E12">
-        <v>1.07339370851773</v>
+        <v>1.034048789739648</v>
       </c>
       <c r="F12">
-        <v>1.078563390301561</v>
+        <v>1.040739163458394</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052647183377862</v>
+        <v>1.052716580842099</v>
       </c>
       <c r="J12">
-        <v>1.066949964953118</v>
+        <v>1.043280419283117</v>
       </c>
       <c r="K12">
-        <v>1.067721420239427</v>
+        <v>1.048229344381287</v>
       </c>
       <c r="L12">
-        <v>1.076870694100805</v>
+        <v>1.048551502680746</v>
       </c>
       <c r="M12">
-        <v>1.082022510926874</v>
+        <v>1.055125381439458</v>
       </c>
       <c r="N12">
-        <v>1.025914153910677</v>
+        <v>1.017351804438187</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.060532827429607</v>
+        <v>1.014359258430843</v>
       </c>
       <c r="D13">
-        <v>1.064255817010563</v>
+        <v>1.033947281350116</v>
       </c>
       <c r="E13">
-        <v>1.073446405998223</v>
+        <v>1.034315816059191</v>
       </c>
       <c r="F13">
-        <v>1.078615066444835</v>
+        <v>1.041001373773288</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052663724498116</v>
+        <v>1.052821599493989</v>
       </c>
       <c r="J13">
-        <v>1.06698768244247</v>
+        <v>1.043477653765701</v>
       </c>
       <c r="K13">
-        <v>1.06775550091519</v>
+        <v>1.04840982567394</v>
       </c>
       <c r="L13">
-        <v>1.07691395226431</v>
+        <v>1.048771912403043</v>
       </c>
       <c r="M13">
-        <v>1.08206480367762</v>
+        <v>1.055341522613568</v>
       </c>
       <c r="N13">
-        <v>1.025927112136114</v>
+        <v>1.017420492983075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.060715654983198</v>
+        <v>1.015338831662278</v>
       </c>
       <c r="D14">
-        <v>1.064398630278285</v>
+        <v>1.034687051369837</v>
       </c>
       <c r="E14">
-        <v>1.073619097353197</v>
+        <v>1.035188317498695</v>
       </c>
       <c r="F14">
-        <v>1.078784410199132</v>
+        <v>1.041858150367932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05271789317397</v>
+        <v>1.05316442842578</v>
       </c>
       <c r="J14">
-        <v>1.067111261046207</v>
+        <v>1.044121895593044</v>
       </c>
       <c r="K14">
-        <v>1.067867159932876</v>
+        <v>1.048999334964327</v>
       </c>
       <c r="L14">
-        <v>1.077055695169155</v>
+        <v>1.049491944114677</v>
       </c>
       <c r="M14">
-        <v>1.082203382044863</v>
+        <v>1.056047610986099</v>
       </c>
       <c r="N14">
-        <v>1.025969564685497</v>
+        <v>1.0176448472739</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060828311795951</v>
+        <v>1.015940113933918</v>
       </c>
       <c r="D15">
-        <v>1.06448663156436</v>
+        <v>1.03514126882143</v>
       </c>
       <c r="E15">
-        <v>1.073725516667526</v>
+        <v>1.035724049122779</v>
       </c>
       <c r="F15">
-        <v>1.078888766092791</v>
+        <v>1.042384235136158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052751245673937</v>
+        <v>1.053374689004678</v>
       </c>
       <c r="J15">
-        <v>1.067187397646653</v>
+        <v>1.044517306014052</v>
       </c>
       <c r="K15">
-        <v>1.067935949958867</v>
+        <v>1.049361144564407</v>
       </c>
       <c r="L15">
-        <v>1.077143030948417</v>
+        <v>1.049933940860658</v>
       </c>
       <c r="M15">
-        <v>1.082288767059198</v>
+        <v>1.056481049233497</v>
       </c>
       <c r="N15">
-        <v>1.025995716475896</v>
+        <v>1.017782540649716</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.061484186719395</v>
+        <v>1.019406003635836</v>
       </c>
       <c r="D16">
-        <v>1.064998978765319</v>
+        <v>1.03776138293572</v>
       </c>
       <c r="E16">
-        <v>1.074345204583612</v>
+        <v>1.03881465618834</v>
       </c>
       <c r="F16">
-        <v>1.079496430930331</v>
+        <v>1.045419311612707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052945026219951</v>
+        <v>1.054583976345716</v>
       </c>
       <c r="J16">
-        <v>1.067630480241407</v>
+        <v>1.046795892842907</v>
       </c>
       <c r="K16">
-        <v>1.068336233732548</v>
+        <v>1.051445971151644</v>
       </c>
       <c r="L16">
-        <v>1.077651412859141</v>
+        <v>1.05248203805446</v>
       </c>
       <c r="M16">
-        <v>1.082785779546913</v>
+        <v>1.058979813114453</v>
       </c>
       <c r="N16">
-        <v>1.0261478603576</v>
+        <v>1.018575904553048</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061895743659794</v>
+        <v>1.021551059852215</v>
       </c>
       <c r="D17">
-        <v>1.065320484771423</v>
+        <v>1.039384613919063</v>
       </c>
       <c r="E17">
-        <v>1.074734165828516</v>
+        <v>1.040729644891716</v>
       </c>
       <c r="F17">
-        <v>1.079877838844873</v>
+        <v>1.047299991985169</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053066275192517</v>
+        <v>1.055330010407486</v>
       </c>
       <c r="J17">
-        <v>1.0679083563463</v>
+        <v>1.048205531917128</v>
       </c>
       <c r="K17">
-        <v>1.068587229239603</v>
+        <v>1.052735614940317</v>
       </c>
       <c r="L17">
-        <v>1.077970350927459</v>
+        <v>1.054059332239172</v>
       </c>
       <c r="M17">
-        <v>1.083097572520903</v>
+        <v>1.060526569895179</v>
       </c>
       <c r="N17">
-        <v>1.026243233585604</v>
+        <v>1.019066615031052</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062135849671347</v>
+        <v>1.02279208646757</v>
       </c>
       <c r="D18">
-        <v>1.065508058269898</v>
+        <v>1.040324299217024</v>
       </c>
       <c r="E18">
-        <v>1.074961129276596</v>
+        <v>1.04183833639082</v>
       </c>
       <c r="F18">
-        <v>1.080100392372671</v>
+        <v>1.048388853396372</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053136887864516</v>
+        <v>1.055760750622195</v>
       </c>
       <c r="J18">
-        <v>1.068070415766163</v>
+        <v>1.049020852967396</v>
       </c>
       <c r="K18">
-        <v>1.068733597380013</v>
+        <v>1.053481482653835</v>
       </c>
       <c r="L18">
-        <v>1.078156397615862</v>
+        <v>1.054971955759692</v>
       </c>
       <c r="M18">
-        <v>1.083279446771023</v>
+        <v>1.06142152262454</v>
       </c>
       <c r="N18">
-        <v>1.026298840527049</v>
+        <v>1.019350397539821</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062217728398974</v>
+        <v>1.023213551094461</v>
       </c>
       <c r="D19">
-        <v>1.065572023506799</v>
+        <v>1.040643518415789</v>
       </c>
       <c r="E19">
-        <v>1.07503853301118</v>
+        <v>1.042214987674525</v>
       </c>
       <c r="F19">
-        <v>1.080176291725681</v>
+        <v>1.048758773196931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053160946328487</v>
+        <v>1.055906883569862</v>
       </c>
       <c r="J19">
-        <v>1.068125670262926</v>
+        <v>1.049297703607186</v>
       </c>
       <c r="K19">
-        <v>1.06878349947109</v>
+        <v>1.053734740986481</v>
       </c>
       <c r="L19">
-        <v>1.078219837342599</v>
+        <v>1.055281902851193</v>
       </c>
       <c r="M19">
-        <v>1.083341462984437</v>
+        <v>1.061725467834925</v>
       </c>
       <c r="N19">
-        <v>1.026317797207359</v>
+        <v>1.019446751817087</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061851582134538</v>
+        <v>1.02132197201921</v>
       </c>
       <c r="D20">
-        <v>1.065285985612651</v>
+        <v>1.039211197171943</v>
       </c>
       <c r="E20">
-        <v>1.074692424764096</v>
+        <v>1.040525047393875</v>
       </c>
       <c r="F20">
-        <v>1.079836908614299</v>
+        <v>1.04709905651732</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053053277680683</v>
+        <v>1.055250426311598</v>
       </c>
       <c r="J20">
-        <v>1.067878545039991</v>
+        <v>1.048055008551204</v>
       </c>
       <c r="K20">
-        <v>1.068560303236978</v>
+        <v>1.052597909877955</v>
       </c>
       <c r="L20">
-        <v>1.077936130282901</v>
+        <v>1.053890871913702</v>
       </c>
       <c r="M20">
-        <v>1.083064118976207</v>
+        <v>1.060361371213544</v>
       </c>
       <c r="N20">
-        <v>1.026233003281586</v>
+        <v>1.019014220261806</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.060661814591348</v>
+        <v>1.015050845476837</v>
       </c>
       <c r="D21">
-        <v>1.064356573387797</v>
+        <v>1.034469537721869</v>
       </c>
       <c r="E21">
-        <v>1.073568240204195</v>
+        <v>1.034931773439174</v>
       </c>
       <c r="F21">
-        <v>1.078734539012763</v>
+        <v>1.041606228141329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052701946558561</v>
+        <v>1.053063676053645</v>
       </c>
       <c r="J21">
-        <v>1.067074871113319</v>
+        <v>1.043932501924689</v>
       </c>
       <c r="K21">
-        <v>1.067834280546719</v>
+        <v>1.048826033195485</v>
       </c>
       <c r="L21">
-        <v>1.077013954728586</v>
+        <v>1.049280255300682</v>
       </c>
       <c r="M21">
-        <v>1.082162573687679</v>
+        <v>1.055840021341421</v>
       </c>
       <c r="N21">
-        <v>1.025957064431113</v>
+        <v>1.017578893129137</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059914228553964</v>
+        <v>1.011009815522265</v>
       </c>
       <c r="D22">
-        <v>1.063772621254322</v>
+        <v>1.031419815829706</v>
       </c>
       <c r="E22">
-        <v>1.072862226684549</v>
+        <v>1.03133510264952</v>
       </c>
       <c r="F22">
-        <v>1.078042204109751</v>
+        <v>1.038074514386312</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052480063358886</v>
+        <v>1.051646793040182</v>
       </c>
       <c r="J22">
-        <v>1.066569383229427</v>
+        <v>1.041274269092221</v>
       </c>
       <c r="K22">
-        <v>1.067377504823172</v>
+        <v>1.046393520469381</v>
       </c>
       <c r="L22">
-        <v>1.076434289884393</v>
+        <v>1.046310355186897</v>
       </c>
       <c r="M22">
-        <v>1.081595836702641</v>
+        <v>1.052927648654936</v>
       </c>
       <c r="N22">
-        <v>1.025783368509364</v>
+        <v>1.016653084255395</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060310493629411</v>
+        <v>1.013161682738119</v>
       </c>
       <c r="D23">
-        <v>1.064082146558836</v>
+        <v>1.033043238747485</v>
       </c>
       <c r="E23">
-        <v>1.073236421186766</v>
+        <v>1.033249612499103</v>
       </c>
       <c r="F23">
-        <v>1.078409150834191</v>
+        <v>1.039954409779237</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052597781344053</v>
+        <v>1.052402004236996</v>
       </c>
       <c r="J23">
-        <v>1.066837369418399</v>
+        <v>1.042689936530879</v>
       </c>
       <c r="K23">
-        <v>1.067619678206301</v>
+        <v>1.04768900903088</v>
       </c>
       <c r="L23">
-        <v>1.076741567395833</v>
+        <v>1.04789171486947</v>
       </c>
       <c r="M23">
-        <v>1.081896264994063</v>
+        <v>1.05447837244827</v>
       </c>
       <c r="N23">
-        <v>1.025875467082745</v>
+        <v>1.017146157129807</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061871536666716</v>
+        <v>1.021425518241261</v>
       </c>
       <c r="D24">
-        <v>1.065301574160091</v>
+        <v>1.039289578686563</v>
       </c>
       <c r="E24">
-        <v>1.074711285479601</v>
+        <v>1.040617521756737</v>
       </c>
       <c r="F24">
-        <v>1.079855402961851</v>
+        <v>1.04718987560773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053059151036074</v>
+        <v>1.055286400539685</v>
       </c>
       <c r="J24">
-        <v>1.067892015551005</v>
+        <v>1.04812304485361</v>
       </c>
       <c r="K24">
-        <v>1.068572470041418</v>
+        <v>1.052660152482933</v>
       </c>
       <c r="L24">
-        <v>1.077951593071242</v>
+        <v>1.053967014659955</v>
       </c>
       <c r="M24">
-        <v>1.083079235160058</v>
+        <v>1.060436039728496</v>
       </c>
       <c r="N24">
-        <v>1.026237625985607</v>
+        <v>1.019037902730579</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063685071961592</v>
+        <v>1.030619963577075</v>
       </c>
       <c r="D25">
-        <v>1.066718394147402</v>
+        <v>1.04626073022258</v>
       </c>
       <c r="E25">
-        <v>1.076426269604502</v>
+        <v>1.048844652804675</v>
       </c>
       <c r="F25">
-        <v>1.081537019647832</v>
+        <v>1.055270359026249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053590236584141</v>
+        <v>1.058461593639105</v>
       </c>
       <c r="J25">
-        <v>1.069115047810479</v>
+        <v>1.054159028447855</v>
       </c>
       <c r="K25">
-        <v>1.069676824075884</v>
+        <v>1.058180975760625</v>
       </c>
       <c r="L25">
-        <v>1.079356366872604</v>
+        <v>1.060729247777656</v>
       </c>
       <c r="M25">
-        <v>1.084452423108938</v>
+        <v>1.067067250325352</v>
       </c>
       <c r="N25">
-        <v>1.026657001786422</v>
+        <v>1.021138010267823</v>
       </c>
     </row>
   </sheetData>
